--- a/Base de datos.xlsx
+++ b/Base de datos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -25,6 +25,12 @@
     <t>AREA</t>
   </si>
   <si>
+    <t>LONG_MAN</t>
+  </si>
+  <si>
+    <t>ANCH_MAN</t>
+  </si>
+  <si>
     <t>133.6</t>
   </si>
   <si>
@@ -97,7 +103,13 @@
     <t>51.3</t>
   </si>
   <si>
-    <t>identificador de hoja</t>
+    <t>IDENTIFICADOR DE HOJA</t>
+  </si>
+  <si>
+    <t>MEDIDA MANUAL DE LONGITUD</t>
+  </si>
+  <si>
+    <t>MEDIDA MANUAL DEL ANCHO</t>
   </si>
 </sst>
 </file>
@@ -141,13 +153,13 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -379,389 +391,535 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>1.0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>45916.0</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>45850.0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="E2" s="3">
+        <v>45885.0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>45700.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
         <v>2.0</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>45789.0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>45724.0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="E3" s="3">
+        <v>45820.0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45696.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
         <v>3.0</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>45913.0</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>45698.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="E4" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>45698.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
         <v>4.0</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>45850.0</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>45816.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="E5" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>45785.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
         <v>5.0</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>45820.0</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>45696.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
+        <v>45912.0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
         <v>6.0</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>45880.0</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>45845.0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="E7" s="3">
+        <v>45700.0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>45784.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
         <v>7.0</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>45699.0</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>45784.0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="E8" s="3">
+        <v>45788.0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>45784.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
         <v>8.0</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>45821.0</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>45696.0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="E9" s="3">
+        <v>45882.0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>45845.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
         <v>9.0</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>45821.0</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>45724.0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="E10" s="3">
+        <v>45851.0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>45785.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
         <v>10.0</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>45699.0</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>45877.0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="E11" s="3">
+        <v>45788.0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>45877.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
         <v>11.0</v>
       </c>
       <c r="B12" s="1">
-        <v>23.0</v>
-      </c>
-      <c r="C12" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="C12" s="3">
         <v>45878.0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="E12" s="3">
+        <v>45760.0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
         <v>12.0</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>45850.0</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>45785.0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="E13" s="3">
+        <v>45850.0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>45908.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
         <v>13.0</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>45912.0</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>45757.0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="E14" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
         <v>14.0</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>45759.0</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <v>45907.0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="E15" s="3">
+        <v>45789.0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>45907.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
         <v>15.0</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>45703.0</v>
       </c>
       <c r="C16" s="1">
         <v>10.0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E16" s="3">
+        <v>45703.0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>45786.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
         <v>16.0</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>45763.0</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <v>45911.0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="E17" s="3">
+        <v>45703.0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>45818.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
         <v>17.0</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <v>45793.0</v>
       </c>
       <c r="C18" s="1">
         <v>12.0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="E18" s="3">
+        <v>45732.0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>45819.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
         <v>18.0</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <v>45791.0</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="3">
         <v>45755.0</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="E19" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>45696.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
         <v>19.0</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="3">
         <v>45880.0</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="3">
         <v>45847.0</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="E20" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>45786.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1">
         <v>20.0</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <v>45758.0</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="3">
         <v>45785.0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="E21" s="3">
+        <v>45880.0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>45845.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1">
         <v>21.0</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <v>45671.0</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="3">
         <v>45817.0</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="E22" s="3">
+        <v>45790.0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1">
         <v>22.0</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="3">
         <v>45670.0</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="3">
         <v>45785.0</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="E23" s="3">
+        <v>45789.0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1">
         <v>23.0</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="3">
         <v>45819.0</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="3">
         <v>45696.0</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="E24" s="3">
+        <v>45819.0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>45784.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1">
         <v>24.0</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3">
         <v>45881.0</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="3">
         <v>45907.0</v>
       </c>
       <c r="D25" s="1">
         <v>56.0</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="3">
+        <v>45728.0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>45845.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1">
         <v>25.0</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="3">
         <v>45911.0</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="3">
         <v>45784.0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="E26" s="3">
+        <v>45699.0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>45814.0</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>28</v>
+      <c r="B29" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
